--- a/results/CIFAR100/simplecnn/noise_0.1/SR-Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR100/simplecnn/noise_0.1/SR-Adam/runs_and_aggregate.xlsx
@@ -487,7 +487,7 @@
         <v>13.34</v>
       </c>
       <c r="F2" t="n">
-        <v>37.02182817459106</v>
+        <v>30.17295384407043</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>19.81</v>
       </c>
       <c r="F3" t="n">
-        <v>37.4550416469574</v>
+        <v>29.86632513999939</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>24.87</v>
       </c>
       <c r="F4" t="n">
-        <v>37.4699969291687</v>
+        <v>29.82923722267151</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>28.31</v>
       </c>
       <c r="F5" t="n">
-        <v>36.19917988777161</v>
+        <v>29.73607087135315</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>30.69</v>
       </c>
       <c r="F6" t="n">
-        <v>35.9292163848877</v>
+        <v>29.80016016960144</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>32.75</v>
       </c>
       <c r="F7" t="n">
-        <v>35.80182552337646</v>
+        <v>29.98530292510986</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>34.55</v>
       </c>
       <c r="F8" t="n">
-        <v>36.01640629768372</v>
+        <v>29.99885416030884</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>34.7</v>
       </c>
       <c r="F9" t="n">
-        <v>36.34498572349548</v>
+        <v>29.77091073989868</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>36.24</v>
       </c>
       <c r="F10" t="n">
-        <v>36.04956650733948</v>
+        <v>29.87116646766662</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>36.69</v>
       </c>
       <c r="F11" t="n">
-        <v>36.778892993927</v>
+        <v>30.08667969703674</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>37.95</v>
       </c>
       <c r="F12" t="n">
-        <v>36.01846742630005</v>
+        <v>29.97209882736206</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>37.81</v>
       </c>
       <c r="F13" t="n">
-        <v>36.14047074317932</v>
+        <v>29.83990502357483</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>38.06</v>
       </c>
       <c r="F14" t="n">
-        <v>36.22318840026856</v>
+        <v>29.85937881469727</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>38.89</v>
       </c>
       <c r="F15" t="n">
-        <v>36.1284122467041</v>
+        <v>29.86698317527771</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>39.07</v>
       </c>
       <c r="F16" t="n">
-        <v>36.33933210372925</v>
+        <v>30.01329350471497</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>39.37</v>
       </c>
       <c r="F17" t="n">
-        <v>35.7274227142334</v>
+        <v>29.8304717540741</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>39.44</v>
       </c>
       <c r="F18" t="n">
-        <v>35.37576246261597</v>
+        <v>29.95066165924072</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>39.07</v>
       </c>
       <c r="F19" t="n">
-        <v>35.24922466278076</v>
+        <v>29.91001868247986</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>40.36</v>
       </c>
       <c r="F20" t="n">
-        <v>35.68207597732544</v>
+        <v>29.9825451374054</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>39.63</v>
       </c>
       <c r="F21" t="n">
-        <v>38.06974458694458</v>
+        <v>30.19325160980225</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>13.06</v>
       </c>
       <c r="F2" t="n">
-        <v>37.91656064987183</v>
+        <v>30.31758642196656</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>18.89</v>
       </c>
       <c r="F3" t="n">
-        <v>36.10809278488159</v>
+        <v>30.00874161720276</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>23.03</v>
       </c>
       <c r="F4" t="n">
-        <v>36.11023211479187</v>
+        <v>29.97312712669373</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>25.62</v>
       </c>
       <c r="F5" t="n">
-        <v>35.92012357711792</v>
+        <v>29.88384938240052</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>27.81</v>
       </c>
       <c r="F6" t="n">
-        <v>36.23154759407044</v>
+        <v>29.97754120826721</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>29.74</v>
       </c>
       <c r="F7" t="n">
-        <v>35.86214995384216</v>
+        <v>29.91298484802246</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>31.35</v>
       </c>
       <c r="F8" t="n">
-        <v>36.0382137298584</v>
+        <v>30.01211476325989</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>32.35</v>
       </c>
       <c r="F9" t="n">
-        <v>35.98133063316345</v>
+        <v>29.84155917167664</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>33.68</v>
       </c>
       <c r="F10" t="n">
-        <v>36.03186559677124</v>
+        <v>29.97650766372681</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>34.79</v>
       </c>
       <c r="F11" t="n">
-        <v>37.01454281806946</v>
+        <v>30.26162767410278</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>35.7</v>
       </c>
       <c r="F12" t="n">
-        <v>36.02766609191895</v>
+        <v>29.98369646072388</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>36.44</v>
       </c>
       <c r="F13" t="n">
-        <v>36.18729019165039</v>
+        <v>29.89931750297546</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>37.06</v>
       </c>
       <c r="F14" t="n">
-        <v>36.00674366950989</v>
+        <v>30.02931904792786</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>37.91</v>
       </c>
       <c r="F15" t="n">
-        <v>36.38473010063171</v>
+        <v>29.86615824699402</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>38.44</v>
       </c>
       <c r="F16" t="n">
-        <v>35.40877723693848</v>
+        <v>29.93833947181702</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>38.15</v>
       </c>
       <c r="F17" t="n">
-        <v>35.48998093605042</v>
+        <v>29.84417009353638</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>39.48</v>
       </c>
       <c r="F18" t="n">
-        <v>35.7176296710968</v>
+        <v>30.06654357910156</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>39.87</v>
       </c>
       <c r="F19" t="n">
-        <v>37.30153608322144</v>
+        <v>29.85201406478882</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>40.32</v>
       </c>
       <c r="F20" t="n">
-        <v>37.08657670021057</v>
+        <v>29.95635437965393</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>39.79</v>
       </c>
       <c r="F21" t="n">
-        <v>36.82098841667175</v>
+        <v>30.11133670806885</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>13.88</v>
       </c>
       <c r="F2" t="n">
-        <v>36.62307167053223</v>
+        <v>30.22162556648254</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>20.71</v>
       </c>
       <c r="F3" t="n">
-        <v>35.99981331825256</v>
+        <v>29.96943998336792</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>25.03</v>
       </c>
       <c r="F4" t="n">
-        <v>36.08196401596069</v>
+        <v>29.97220635414124</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>28.21</v>
       </c>
       <c r="F5" t="n">
-        <v>36.04283499717712</v>
+        <v>29.88718938827514</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>29.22</v>
       </c>
       <c r="F6" t="n">
-        <v>36.3337094783783</v>
+        <v>29.99798679351806</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>31.54</v>
       </c>
       <c r="F7" t="n">
-        <v>36.10601878166199</v>
+        <v>29.93465852737427</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>32.75</v>
       </c>
       <c r="F8" t="n">
-        <v>36.13864636421204</v>
+        <v>29.94692349433899</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>33.85</v>
       </c>
       <c r="F9" t="n">
-        <v>35.9267590045929</v>
+        <v>29.91335320472717</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>35.17</v>
       </c>
       <c r="F10" t="n">
-        <v>36.01856327056885</v>
+        <v>29.93129110336304</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>35.85</v>
       </c>
       <c r="F11" t="n">
-        <v>36.65056991577149</v>
+        <v>30.22069430351257</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>36.41</v>
       </c>
       <c r="F12" t="n">
-        <v>36.04774713516235</v>
+        <v>29.90058326721192</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>37.26</v>
       </c>
       <c r="F13" t="n">
-        <v>36.10023641586304</v>
+        <v>29.96459770202637</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>38.23</v>
       </c>
       <c r="F14" t="n">
-        <v>35.49977159500122</v>
+        <v>29.84026312828064</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>37.92</v>
       </c>
       <c r="F15" t="n">
-        <v>35.3003978729248</v>
+        <v>29.82733726501465</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>38.54</v>
       </c>
       <c r="F16" t="n">
-        <v>35.3638768196106</v>
+        <v>29.91661596298218</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>38.77</v>
       </c>
       <c r="F17" t="n">
-        <v>36.38074254989624</v>
+        <v>29.86282658576965</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>38.38</v>
       </c>
       <c r="F18" t="n">
-        <v>37.17801690101624</v>
+        <v>29.90283679962159</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>39.67</v>
       </c>
       <c r="F19" t="n">
-        <v>36.65353465080261</v>
+        <v>29.96485996246338</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>40.26</v>
       </c>
       <c r="F20" t="n">
-        <v>36.0890212059021</v>
+        <v>29.91131472587585</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>39.75</v>
       </c>
       <c r="F21" t="n">
-        <v>36.74027156829834</v>
+        <v>30.27725982666016</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>12.45</v>
       </c>
       <c r="F2" t="n">
-        <v>36.50926065444946</v>
+        <v>30.20122551918029</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>19.41</v>
       </c>
       <c r="F3" t="n">
-        <v>36.12219500541687</v>
+        <v>29.90290069580078</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>24.02</v>
       </c>
       <c r="F4" t="n">
-        <v>36.1061589717865</v>
+        <v>29.87540197372437</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>26.94</v>
       </c>
       <c r="F5" t="n">
-        <v>36.1292712688446</v>
+        <v>29.92178177833557</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>28.93</v>
       </c>
       <c r="F6" t="n">
-        <v>36.27690100669861</v>
+        <v>29.92568373680115</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>31.21</v>
       </c>
       <c r="F7" t="n">
-        <v>35.97782421112061</v>
+        <v>29.93826198577881</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>33.2</v>
       </c>
       <c r="F8" t="n">
-        <v>36.07978296279907</v>
+        <v>30.04385781288147</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>33.32</v>
       </c>
       <c r="F9" t="n">
-        <v>36.23226022720337</v>
+        <v>30.1143696308136</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>34.29</v>
       </c>
       <c r="F10" t="n">
-        <v>36.00467014312744</v>
+        <v>29.92748832702637</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>36.37</v>
       </c>
       <c r="F11" t="n">
-        <v>36.78162741661072</v>
+        <v>30.19694876670837</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>36.44</v>
       </c>
       <c r="F12" t="n">
-        <v>35.61389684677124</v>
+        <v>30.0488510131836</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>37.48</v>
       </c>
       <c r="F13" t="n">
-        <v>35.31423473358154</v>
+        <v>29.90946793556213</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>37.4</v>
       </c>
       <c r="F14" t="n">
-        <v>35.26311135292053</v>
+        <v>29.85643482208252</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>37.56</v>
       </c>
       <c r="F15" t="n">
-        <v>35.8013756275177</v>
+        <v>29.85317349433899</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>37.5</v>
       </c>
       <c r="F16" t="n">
-        <v>37.92027544975281</v>
+        <v>30.04086804389954</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>38.72</v>
       </c>
       <c r="F17" t="n">
-        <v>40.31894636154175</v>
+        <v>29.81334638595581</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>39.61</v>
       </c>
       <c r="F18" t="n">
-        <v>36.50596618652344</v>
+        <v>29.91530632972717</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>39.31</v>
       </c>
       <c r="F19" t="n">
-        <v>36.77175068855286</v>
+        <v>29.89337086677552</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>39.71</v>
       </c>
       <c r="F20" t="n">
-        <v>35.90218663215637</v>
+        <v>29.88119554519653</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>40.2</v>
       </c>
       <c r="F21" t="n">
-        <v>36.48243093490601</v>
+        <v>30.06596708297729</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>12.93</v>
       </c>
       <c r="F2" t="n">
-        <v>39.48790502548218</v>
+        <v>30.20951962471008</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>20.06</v>
       </c>
       <c r="F3" t="n">
-        <v>35.91677260398865</v>
+        <v>29.94329738616944</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>24.75</v>
       </c>
       <c r="F4" t="n">
-        <v>35.69716024398804</v>
+        <v>29.84990620613098</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>27.51</v>
       </c>
       <c r="F5" t="n">
-        <v>35.85598087310791</v>
+        <v>29.80749368667603</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>29.94</v>
       </c>
       <c r="F6" t="n">
-        <v>35.94422006607056</v>
+        <v>29.85116219520569</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>31.6</v>
       </c>
       <c r="F7" t="n">
-        <v>34.28806018829346</v>
+        <v>29.92837309837341</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>33.54</v>
       </c>
       <c r="F8" t="n">
-        <v>31.42763161659241</v>
+        <v>29.80134844779968</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>34.71</v>
       </c>
       <c r="F9" t="n">
-        <v>31.18479156494141</v>
+        <v>30.00016903877258</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>36.37</v>
       </c>
       <c r="F10" t="n">
-        <v>31.26107716560364</v>
+        <v>29.810391664505</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>36.43</v>
       </c>
       <c r="F11" t="n">
-        <v>31.96853566169739</v>
+        <v>30.29829168319702</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>36.85</v>
       </c>
       <c r="F12" t="n">
-        <v>31.12049031257629</v>
+        <v>29.87538576126098</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>37.64</v>
       </c>
       <c r="F13" t="n">
-        <v>31.57333922386169</v>
+        <v>29.94906735420227</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>38.64</v>
       </c>
       <c r="F14" t="n">
-        <v>31.690922498703</v>
+        <v>29.89653730392456</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>38.83</v>
       </c>
       <c r="F15" t="n">
-        <v>32.18472671508789</v>
+        <v>29.94131016731263</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>39.6</v>
       </c>
       <c r="F16" t="n">
-        <v>31.73747372627258</v>
+        <v>30.04932045936584</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>39.39</v>
       </c>
       <c r="F17" t="n">
-        <v>31.74817180633545</v>
+        <v>29.92729234695435</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>40.51</v>
       </c>
       <c r="F18" t="n">
-        <v>31.8618848323822</v>
+        <v>30.0289237499237</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>40.5</v>
       </c>
       <c r="F19" t="n">
-        <v>31.95730757713318</v>
+        <v>29.9401912689209</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>40.95</v>
       </c>
       <c r="F20" t="n">
-        <v>31.65881514549256</v>
+        <v>29.8295214176178</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>41.01</v>
       </c>
       <c r="F21" t="n">
-        <v>32.53432464599609</v>
+        <v>30.15582966804504</v>
       </c>
     </row>
   </sheetData>
